--- a/similarities/split_global/harmonic_similarity_timestamps_191.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_191.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Ab:maj', 'Bb:min']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'Eb', 'F:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.599000', '0:00:06.409000')]</t>
+          <t>('0:00:21.722199', '0:00:26.760929')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.680000', '0:00:06.260000')]</t>
+          <t>('0:02:37.840000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-201#t=3.599']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=3.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:36.749660', '0:01:48.092607')]</t>
+          <t>('0:00:32.440000', '0:00:34.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:13.740000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=6.18']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:20.480000', '0:01:39.360000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5', 'A/3']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:04.917554')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:54.592000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.920000', '0:00:26.040000'), ('0:00:07.300000', '0:00:10.300000')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:12.500000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=5.4']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:01:58.440000', '0:02:02')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.910000', '0:00:14')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_87</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:25', '0:00:35.520000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:04:24.615000', '0:04:33.028000'), ('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:01:42.400000', '0:02:01.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['F:min/C', 'C:7', 'F:min'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Bb:min', 'F:7', 'Bb:min'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:24.280000'), ('0:00:47.400000', '0:00:54.840000'), ('0:01:04.080000', '0:01:13.880000'), ('0:01:04.580000', '0:01:17.220000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:43.680000', '0:00:44.980000'), ('0:00:46.750000', '0:00:47.790000'), ('0:00:14.910000', '0:00:20.600000')]</t>
+          <t>('0:00:15.027029', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=47.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:20.730000', '0:00:24.830000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:35.860000', '0:00:37.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>schubert-winterreise_131</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_107</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-107#t=24.66']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
